--- a/dst/evaluate_proposed.xlsx
+++ b/dst/evaluate_proposed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmatsui\Desktop\forRepository\dst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmatsui\Desktop\repositoryData\dst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65943F3E-74BB-4927-B3C4-68F7E38ECFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B74A2A-22A8-4983-9FEF-3B96EC93D908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="1530" windowWidth="19560" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="2085" windowWidth="19560" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mean" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -428,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>33.576577453613282</v>
+        <v>34.735241699218747</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -436,7 +436,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>15.349874210357671</v>
+        <v>16.00593521118164</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>18.555102291107179</v>
+        <v>19.286077308654789</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -452,7 +452,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>14.23603048324585</v>
+        <v>15.665060806274409</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>30.70730800628662</v>
+        <v>33.232166633605956</v>
       </c>
     </row>
   </sheetData>

--- a/dst/evaluate_proposed.xlsx
+++ b/dst/evaluate_proposed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmatsui\Desktop\repositoryData\dst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmatsui\Desktop\noUse\batch\dst1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B74A2A-22A8-4983-9FEF-3B96EC93D908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1BDB7E-F99E-41EE-A0B4-CC634949AABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="2085" windowWidth="19560" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11280" yWindow="2325" windowWidth="14520" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mean" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -428,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>34.735241699218747</v>
+        <v>33.746071777343751</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -436,7 +436,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>16.00593521118164</v>
+        <v>16.661805305480961</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>19.286077308654789</v>
+        <v>20.938110923767091</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -452,7 +452,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>15.665060806274409</v>
+        <v>17.055211009979249</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>33.232166633605956</v>
+        <v>32.730660514831541</v>
       </c>
     </row>
   </sheetData>
